--- a/result/atest_060_zernikemomentcalctime_GPU_30P_6K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_30P_6K.xlsx
@@ -483,28 +483,28 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4345371861171708</v>
+        <v>0.5359427894971425</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.943989031873567</v>
+        <v>-0.9456723801042282</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2137737274169922</v>
+        <v>0.2359368801116943</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07096433639526367</v>
+        <v>0.06728267669677734</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1230528354644775</v>
+        <v>0.1194620132446289</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1899313926696777</v>
+        <v>0.2381296157836914</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2730982303619385</v>
+        <v>0.33205246925354</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3905541896820068</v>
+        <v>0.4801571369171143</v>
       </c>
     </row>
     <row r="3">
@@ -517,28 +517,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>1.148510031337973</v>
+        <v>1.075948899825553</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9033946068766322</v>
+        <v>-0.8458138983912977</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1500418186187744</v>
+        <v>0.1752786636352539</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2285745143890381</v>
+        <v>0.2319862842559814</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3773086071014404</v>
+        <v>0.4068686962127686</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5860762596130371</v>
+        <v>0.6406712532043457</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8354313373565674</v>
+        <v>0.8228652477264404</v>
       </c>
       <c r="J3" t="n">
-        <v>1.146847486495972</v>
+        <v>1.145119428634644</v>
       </c>
     </row>
     <row r="4">
@@ -551,28 +551,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>1.321397279010098</v>
+        <v>1.313357216018229</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6139118511292612</v>
+        <v>-0.6059438354694106</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2863538265228271</v>
+        <v>0.2905101776123047</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5159063339233398</v>
+        <v>0.5244240760803223</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8991310596466064</v>
+        <v>0.9081006050109863</v>
       </c>
       <c r="H4" t="n">
-        <v>1.441322803497314</v>
+        <v>1.463324546813965</v>
       </c>
       <c r="I4" t="n">
-        <v>2.151707410812378</v>
+        <v>2.158493995666504</v>
       </c>
       <c r="J4" t="n">
-        <v>3.001642465591431</v>
+        <v>2.99616527557373</v>
       </c>
     </row>
     <row r="5">
@@ -585,28 +585,28 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>1.390034030390826</v>
+        <v>1.385638641342943</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3421114756937918</v>
+        <v>-0.3311204150508014</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5368719100952148</v>
+        <v>0.5397970676422119</v>
       </c>
       <c r="F5" t="n">
-        <v>1.008087635040283</v>
+        <v>1.033672332763672</v>
       </c>
       <c r="G5" t="n">
-        <v>1.820183038711548</v>
+        <v>1.9298415184021</v>
       </c>
       <c r="H5" t="n">
-        <v>2.95823335647583</v>
+        <v>3.056205272674561</v>
       </c>
       <c r="I5" t="n">
-        <v>4.421823978424072</v>
+        <v>4.521931171417236</v>
       </c>
       <c r="J5" t="n">
-        <v>6.441731214523315</v>
+        <v>6.307631969451904</v>
       </c>
     </row>
     <row r="6">
@@ -619,28 +619,28 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>1.348754674187334</v>
+        <v>1.332031949180475</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04728907976741251</v>
+        <v>-0.03609075625876046</v>
       </c>
       <c r="E6" t="n">
-        <v>1.070064306259155</v>
+        <v>1.082466602325439</v>
       </c>
       <c r="F6" t="n">
-        <v>1.871409177780151</v>
+        <v>1.949644804000854</v>
       </c>
       <c r="G6" t="n">
-        <v>3.45980978012085</v>
+        <v>3.46617317199707</v>
       </c>
       <c r="H6" t="n">
-        <v>5.583796501159668</v>
+        <v>5.640121221542358</v>
       </c>
       <c r="I6" t="n">
-        <v>8.322537183761597</v>
+        <v>8.177613019943237</v>
       </c>
       <c r="J6" t="n">
-        <v>11.54223155975342</v>
+        <v>11.51803350448608</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +653,28 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>1.48795953320369</v>
+        <v>1.488854630017493</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07929837405430748</v>
+        <v>0.08195221149000317</v>
       </c>
       <c r="E7" t="n">
-        <v>1.377645969390869</v>
+        <v>1.392850637435913</v>
       </c>
       <c r="F7" t="n">
-        <v>2.910464286804199</v>
+        <v>2.918318271636963</v>
       </c>
       <c r="G7" t="n">
-        <v>5.488438367843628</v>
+        <v>5.497605085372925</v>
       </c>
       <c r="H7" t="n">
-        <v>9.094772100448608</v>
+        <v>9.154937505722046</v>
       </c>
       <c r="I7" t="n">
-        <v>13.74252009391785</v>
+        <v>13.83030319213867</v>
       </c>
       <c r="J7" t="n">
-        <v>19.40789580345154</v>
+        <v>19.68648242950439</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_30P_6K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_30P_6K.xlsx
@@ -483,28 +483,28 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5359427894971425</v>
+        <v>0.4823327246175487</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9456723801042282</v>
+        <v>-0.9684580852436093</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2359368801116943</v>
+        <v>0.1974780559539795</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06728267669677734</v>
+        <v>0.06320405006408691</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1194620132446289</v>
+        <v>0.1501758098602295</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2381296157836914</v>
+        <v>0.1947877407073975</v>
       </c>
       <c r="I2" t="n">
-        <v>0.33205246925354</v>
+        <v>0.2725822925567627</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4801571369171143</v>
+        <v>0.3711192607879639</v>
       </c>
     </row>
     <row r="3">
@@ -517,28 +517,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>1.075948899825553</v>
+        <v>1.123943341235439</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8458138983912977</v>
+        <v>-0.9029503349352291</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1752786636352539</v>
+        <v>0.1505894660949707</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2319862842559814</v>
+        <v>0.2262518405914307</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4068686962127686</v>
+        <v>0.3655662536621094</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6406712532043457</v>
+        <v>0.5568287372589111</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8228652477264404</v>
+        <v>0.8048393726348877</v>
       </c>
       <c r="J3" t="n">
-        <v>1.145119428634644</v>
+        <v>1.114279508590698</v>
       </c>
     </row>
     <row r="4">
@@ -551,28 +551,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>1.313357216018229</v>
+        <v>1.18220642435194</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6059438354694106</v>
+        <v>-0.5335426485953844</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2905101776123047</v>
+        <v>0.3493342399597168</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5244240760803223</v>
+        <v>0.5567145347595215</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9081006050109863</v>
+        <v>0.9113965034484863</v>
       </c>
       <c r="H4" t="n">
-        <v>1.463324546813965</v>
+        <v>1.428680658340454</v>
       </c>
       <c r="I4" t="n">
-        <v>2.158493995666504</v>
+        <v>2.095820903778076</v>
       </c>
       <c r="J4" t="n">
-        <v>2.99616527557373</v>
+        <v>2.830287456512451</v>
       </c>
     </row>
     <row r="5">
@@ -585,28 +585,28 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>1.385638641342943</v>
+        <v>1.35606082698866</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3311204150508014</v>
+        <v>-0.3478018252924822</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5397970676422119</v>
+        <v>0.5277547836303711</v>
       </c>
       <c r="F5" t="n">
-        <v>1.033672332763672</v>
+        <v>0.9696252346038818</v>
       </c>
       <c r="G5" t="n">
-        <v>1.9298415184021</v>
+        <v>1.740685701370239</v>
       </c>
       <c r="H5" t="n">
-        <v>3.056205272674561</v>
+        <v>2.808941125869751</v>
       </c>
       <c r="I5" t="n">
-        <v>4.521931171417236</v>
+        <v>4.183905601501465</v>
       </c>
       <c r="J5" t="n">
-        <v>6.307631969451904</v>
+        <v>5.861716270446777</v>
       </c>
     </row>
     <row r="6">
@@ -619,28 +619,28 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>1.332031949180475</v>
+        <v>1.409602528247792</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.03609075625876046</v>
+        <v>-0.1181901744490398</v>
       </c>
       <c r="E6" t="n">
-        <v>1.082466602325439</v>
+        <v>0.8859097957611084</v>
       </c>
       <c r="F6" t="n">
-        <v>1.949644804000854</v>
+        <v>1.729326248168945</v>
       </c>
       <c r="G6" t="n">
-        <v>3.46617317199707</v>
+        <v>3.151888370513916</v>
       </c>
       <c r="H6" t="n">
-        <v>5.640121221542358</v>
+        <v>5.151033401489258</v>
       </c>
       <c r="I6" t="n">
-        <v>8.177613019943237</v>
+        <v>7.715577840805054</v>
       </c>
       <c r="J6" t="n">
-        <v>11.51803350448608</v>
+        <v>10.85080456733704</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +653,28 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>1.488854630017493</v>
+        <v>1.456145757565281</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08195221149000317</v>
+        <v>0.07476096514678253</v>
       </c>
       <c r="E7" t="n">
-        <v>1.392850637435913</v>
+        <v>1.371697902679443</v>
       </c>
       <c r="F7" t="n">
-        <v>2.918318271636963</v>
+        <v>2.801531314849854</v>
       </c>
       <c r="G7" t="n">
-        <v>5.497605085372925</v>
+        <v>5.213262319564819</v>
       </c>
       <c r="H7" t="n">
-        <v>9.154937505722046</v>
+        <v>8.592933177947998</v>
       </c>
       <c r="I7" t="n">
-        <v>13.83030319213867</v>
+        <v>12.94346165657043</v>
       </c>
       <c r="J7" t="n">
-        <v>19.68648242950439</v>
+        <v>18.25168323516846</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_30P_6K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_30P_6K.xlsx
@@ -483,28 +483,28 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4823327246175487</v>
+        <v>0.4253388535172238</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9684580852436093</v>
+        <v>-0.9461960732045136</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1974780559539795</v>
+        <v>0.2109427452087402</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06320405006408691</v>
+        <v>0.07037186622619629</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1501758098602295</v>
+        <v>0.1223604679107666</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1947877407073975</v>
+        <v>0.1870837211608887</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2725822925567627</v>
+        <v>0.2731833457946777</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3711192607879639</v>
+        <v>0.3719315528869629</v>
       </c>
     </row>
     <row r="3">
@@ -517,28 +517,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>1.123943341235439</v>
+        <v>1.140477214606766</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9029503349352291</v>
+        <v>-0.9057779833156037</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1505894660949707</v>
+        <v>0.1486248970031738</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2262518405914307</v>
+        <v>0.2225091457366943</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3655662536621094</v>
+        <v>0.3744351863861084</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5568287372589111</v>
+        <v>0.6118330955505371</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8048393726348877</v>
+        <v>0.8013622760772705</v>
       </c>
       <c r="J3" t="n">
-        <v>1.114279508590698</v>
+        <v>1.098441123962402</v>
       </c>
     </row>
     <row r="4">
@@ -551,28 +551,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>1.18220642435194</v>
+        <v>1.303246238378007</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5335426485953844</v>
+        <v>-0.6248697007097417</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3493342399597168</v>
+        <v>0.2797834873199463</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5567145347595215</v>
+        <v>0.4942688941955566</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9113965034484863</v>
+        <v>0.8606789112091064</v>
       </c>
       <c r="H4" t="n">
-        <v>1.428680658340454</v>
+        <v>1.375180006027222</v>
       </c>
       <c r="I4" t="n">
-        <v>2.095820903778076</v>
+        <v>2.032219886779785</v>
       </c>
       <c r="J4" t="n">
-        <v>2.830287456512451</v>
+        <v>2.83552074432373</v>
       </c>
     </row>
     <row r="5">
@@ -585,28 +585,28 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>1.35606082698866</v>
+        <v>1.36106278644438</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3478018252924822</v>
+        <v>-0.3497365477799722</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5277547836303711</v>
+        <v>0.5257601737976074</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9696252346038818</v>
+        <v>0.9738194942474365</v>
       </c>
       <c r="G5" t="n">
-        <v>1.740685701370239</v>
+        <v>1.732124328613281</v>
       </c>
       <c r="H5" t="n">
-        <v>2.808941125869751</v>
+        <v>2.802672386169434</v>
       </c>
       <c r="I5" t="n">
-        <v>4.183905601501465</v>
+        <v>4.176587820053101</v>
       </c>
       <c r="J5" t="n">
-        <v>5.861716270446777</v>
+        <v>5.94771933555603</v>
       </c>
     </row>
     <row r="6">
@@ -619,28 +619,28 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>1.409602528247792</v>
+        <v>1.308487475693441</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1181901744490398</v>
+        <v>-0.04838899481956706</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8859097957611084</v>
+        <v>1.054109811782837</v>
       </c>
       <c r="F6" t="n">
-        <v>1.729326248168945</v>
+        <v>1.867932796478271</v>
       </c>
       <c r="G6" t="n">
-        <v>3.151888370513916</v>
+        <v>3.290132284164429</v>
       </c>
       <c r="H6" t="n">
-        <v>5.151033401489258</v>
+        <v>5.209781408309937</v>
       </c>
       <c r="I6" t="n">
-        <v>7.715577840805054</v>
+        <v>7.689842224121094</v>
       </c>
       <c r="J6" t="n">
-        <v>10.85080456733704</v>
+        <v>10.82062768936157</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +653,28 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>1.456145757565281</v>
+        <v>1.474870372113674</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07476096514678253</v>
+        <v>0.06797010212944407</v>
       </c>
       <c r="E7" t="n">
-        <v>1.371697902679443</v>
+        <v>1.353599548339844</v>
       </c>
       <c r="F7" t="n">
-        <v>2.801531314849854</v>
+        <v>2.779662847518921</v>
       </c>
       <c r="G7" t="n">
-        <v>5.213262319564819</v>
+        <v>5.196210145950317</v>
       </c>
       <c r="H7" t="n">
-        <v>8.592933177947998</v>
+        <v>8.832223892211914</v>
       </c>
       <c r="I7" t="n">
-        <v>12.94346165657043</v>
+        <v>13.1476583480835</v>
       </c>
       <c r="J7" t="n">
-        <v>18.25168323516846</v>
+        <v>18.44710254669189</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_30P_6K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_30P_6K.xlsx
@@ -483,28 +483,28 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4253388535172238</v>
+        <v>0.3914375852979426</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9461960732045136</v>
+        <v>-0.9276881072051231</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2109427452087402</v>
+        <v>0.2278625965118408</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07037186622619629</v>
+        <v>0.06897711753845215</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1223604679107666</v>
+        <v>0.1214497089385986</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1870837211608887</v>
+        <v>0.1815149784088135</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2731833457946777</v>
+        <v>0.2706606388092041</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3719315528869629</v>
+        <v>0.3803877830505371</v>
       </c>
     </row>
     <row r="3">
@@ -517,28 +517,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>1.140477214606766</v>
+        <v>1.129031113637088</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9057779833156037</v>
+        <v>-0.9069210815138744</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1486248970031738</v>
+        <v>0.1493608951568604</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2225091457366943</v>
+        <v>0.2231681346893311</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3744351863861084</v>
+        <v>0.3641149997711182</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6118330955505371</v>
+        <v>0.5661728382110596</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8013622760772705</v>
+        <v>0.8036367893218994</v>
       </c>
       <c r="J3" t="n">
-        <v>1.098441123962402</v>
+        <v>1.102489233016968</v>
       </c>
     </row>
     <row r="4">
@@ -551,28 +551,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>1.303246238378007</v>
+        <v>1.19370235668541</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6248697007097417</v>
+        <v>-0.5393199036719261</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2797834873199463</v>
+        <v>0.3474562168121338</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4942688941955566</v>
+        <v>0.5469968318939209</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8606789112091064</v>
+        <v>0.9136958122253418</v>
       </c>
       <c r="H4" t="n">
-        <v>1.375180006027222</v>
+        <v>1.42833423614502</v>
       </c>
       <c r="I4" t="n">
-        <v>2.032219886779785</v>
+        <v>2.08676552772522</v>
       </c>
       <c r="J4" t="n">
-        <v>2.83552074432373</v>
+        <v>2.889981746673584</v>
       </c>
     </row>
     <row r="5">
@@ -585,28 +585,28 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>1.36106278644438</v>
+        <v>1.260821099909379</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3497365477799722</v>
+        <v>-0.2731344118430429</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5257601737976074</v>
+        <v>0.6361088752746582</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9738194942474365</v>
+        <v>1.063337087631226</v>
       </c>
       <c r="G5" t="n">
-        <v>1.732124328613281</v>
+        <v>1.836589574813843</v>
       </c>
       <c r="H5" t="n">
-        <v>2.802672386169434</v>
+        <v>2.903213977813721</v>
       </c>
       <c r="I5" t="n">
-        <v>4.176587820053101</v>
+        <v>4.279757976531982</v>
       </c>
       <c r="J5" t="n">
-        <v>5.94771933555603</v>
+        <v>5.960268974304199</v>
       </c>
     </row>
     <row r="6">
@@ -619,28 +619,28 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>1.308487475693441</v>
+        <v>1.319937004816894</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04838899481956706</v>
+        <v>-0.04950141083946012</v>
       </c>
       <c r="E6" t="n">
-        <v>1.054109811782837</v>
+        <v>1.055267095565796</v>
       </c>
       <c r="F6" t="n">
-        <v>1.867932796478271</v>
+        <v>1.871596097946167</v>
       </c>
       <c r="G6" t="n">
-        <v>3.290132284164429</v>
+        <v>3.300256729125977</v>
       </c>
       <c r="H6" t="n">
-        <v>5.209781408309937</v>
+        <v>5.291583776473999</v>
       </c>
       <c r="I6" t="n">
-        <v>7.689842224121094</v>
+        <v>7.859698534011841</v>
       </c>
       <c r="J6" t="n">
-        <v>10.82062768936157</v>
+        <v>10.99959301948547</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +653,28 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>1.474870372113674</v>
+        <v>1.367525735174233</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06797010212944407</v>
+        <v>0.1411139074315913</v>
       </c>
       <c r="E7" t="n">
-        <v>1.353599548339844</v>
+        <v>1.625723361968994</v>
       </c>
       <c r="F7" t="n">
-        <v>2.779662847518921</v>
+        <v>3.015802621841431</v>
       </c>
       <c r="G7" t="n">
-        <v>5.196210145950317</v>
+        <v>5.431460380554199</v>
       </c>
       <c r="H7" t="n">
-        <v>8.832223892211914</v>
+        <v>8.800995349884033</v>
       </c>
       <c r="I7" t="n">
-        <v>13.1476583480835</v>
+        <v>13.15860342979431</v>
       </c>
       <c r="J7" t="n">
-        <v>18.44710254669189</v>
+        <v>18.40990519523621</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_30P_6K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_30P_6K.xlsx
@@ -483,28 +483,28 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3914375852979426</v>
+        <v>0.596750223917628</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9276881072051231</v>
+        <v>-0.9667106384585463</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2278625965118408</v>
+        <v>0.2102463245391846</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06897711753845215</v>
+        <v>0.07394862174987793</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1214497089385986</v>
+        <v>0.1226952075958252</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1815149784088135</v>
+        <v>0.25101637840271</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2706606388092041</v>
+        <v>0.3421530723571777</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3803877830505371</v>
+        <v>0.4902768135070801</v>
       </c>
     </row>
     <row r="3">
@@ -517,28 +517,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>1.129031113637088</v>
+        <v>1.222930962863602</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9069210815138744</v>
+        <v>-0.9471093688817576</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1493608951568604</v>
+        <v>0.1287760734558105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2231681346893311</v>
+        <v>0.2200732231140137</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3641149997711182</v>
+        <v>0.4302599430084229</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5661728382110596</v>
+        <v>0.5620324611663818</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8036367893218994</v>
+        <v>0.8289875984191895</v>
       </c>
       <c r="J3" t="n">
-        <v>1.102489233016968</v>
+        <v>1.140831232070923</v>
       </c>
     </row>
     <row r="4">
@@ -551,28 +551,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>1.19370235668541</v>
+        <v>1.310474886963154</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5393199036719261</v>
+        <v>-0.6043409397006184</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3474562168121338</v>
+        <v>0.2945625782012939</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5469968318939209</v>
+        <v>0.5180509090423584</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9136958122253418</v>
+        <v>0.9072732925415039</v>
       </c>
       <c r="H4" t="n">
-        <v>1.42833423614502</v>
+        <v>1.452426433563232</v>
       </c>
       <c r="I4" t="n">
-        <v>2.08676552772522</v>
+        <v>2.16815972328186</v>
       </c>
       <c r="J4" t="n">
-        <v>2.889981746673584</v>
+        <v>3.012612819671631</v>
       </c>
     </row>
     <row r="5">
@@ -585,28 +585,28 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>1.260821099909379</v>
+        <v>1.366577819470946</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2731344118430429</v>
+        <v>-0.3301091472028336</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6361088752746582</v>
+        <v>0.5475656986236572</v>
       </c>
       <c r="F5" t="n">
-        <v>1.063337087631226</v>
+        <v>1.02137565612793</v>
       </c>
       <c r="G5" t="n">
-        <v>1.836589574813843</v>
+        <v>1.841377735137939</v>
       </c>
       <c r="H5" t="n">
-        <v>2.903213977813721</v>
+        <v>2.970637321472168</v>
       </c>
       <c r="I5" t="n">
-        <v>4.279757976531982</v>
+        <v>4.422843456268311</v>
       </c>
       <c r="J5" t="n">
-        <v>5.960268974304199</v>
+        <v>6.205781698226929</v>
       </c>
     </row>
     <row r="6">
@@ -619,28 +619,28 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>1.319937004816894</v>
+        <v>1.43667083041972</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04950141083946012</v>
+        <v>-0.1011065195849261</v>
       </c>
       <c r="E6" t="n">
-        <v>1.055267095565796</v>
+        <v>0.9158294200897217</v>
       </c>
       <c r="F6" t="n">
-        <v>1.871596097946167</v>
+        <v>1.817347049713135</v>
       </c>
       <c r="G6" t="n">
-        <v>3.300256729125977</v>
+        <v>3.479442834854126</v>
       </c>
       <c r="H6" t="n">
-        <v>5.291583776473999</v>
+        <v>5.562156200408936</v>
       </c>
       <c r="I6" t="n">
-        <v>7.859698534011841</v>
+        <v>8.365537166595459</v>
       </c>
       <c r="J6" t="n">
-        <v>10.99959301948547</v>
+        <v>11.69251322746277</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +653,28 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>1.367525735174233</v>
+        <v>1.379259638516011</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1411139074315913</v>
+        <v>0.1592633394784359</v>
       </c>
       <c r="E7" t="n">
-        <v>1.625723361968994</v>
+        <v>1.696976661682129</v>
       </c>
       <c r="F7" t="n">
-        <v>3.015802621841431</v>
+        <v>3.163252592086792</v>
       </c>
       <c r="G7" t="n">
-        <v>5.431460380554199</v>
+        <v>5.738856077194214</v>
       </c>
       <c r="H7" t="n">
-        <v>8.800995349884033</v>
+        <v>9.334948301315308</v>
       </c>
       <c r="I7" t="n">
-        <v>13.15860342979431</v>
+        <v>13.96846151351929</v>
       </c>
       <c r="J7" t="n">
-        <v>18.40990519523621</v>
+        <v>19.61949348449707</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_30P_6K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_30P_6K.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,45 +429,50 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>P</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>1 K</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>2 K</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>3 K</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>4 K</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>5 K</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>6 K</t>
         </is>
@@ -479,32 +484,37 @@
           <t>GPU</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.596750223917628</v>
-      </c>
       <c r="D2" t="n">
-        <v>-0.9667106384585463</v>
+        <v>1.791824420238908</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2102463245391846</v>
+        <v>-0.5528278479911162</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07394862174987793</v>
+        <v>0.2727115154266357</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1226952075958252</v>
+        <v>0.8176355361938477</v>
       </c>
       <c r="H2" t="n">
-        <v>0.25101637840271</v>
+        <v>2.259559631347656</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3421530723571777</v>
+        <v>5.257014513015747</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4902768135070801</v>
+        <v>4.242559671401978</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.65219259262085</v>
       </c>
     </row>
     <row r="3">
@@ -513,32 +523,37 @@
           <t>GPU</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.222930962863602</v>
-      </c>
       <c r="D3" t="n">
-        <v>-0.9471093688817576</v>
+        <v>2.164372121671362</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1287760734558105</v>
+        <v>-0.4575417722974989</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2200732231140137</v>
+        <v>0.3741240501403809</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4302599430084229</v>
+        <v>1.261255979537964</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5620324611663818</v>
+        <v>4.263588905334473</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8289875984191895</v>
+        <v>7.458236932754517</v>
       </c>
       <c r="J3" t="n">
-        <v>1.140831232070923</v>
+        <v>11.18235731124878</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16.38009238243103</v>
       </c>
     </row>
     <row r="4">
@@ -547,32 +562,37 @@
           <t>GPU</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>15</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.310474886963154</v>
-      </c>
       <c r="D4" t="n">
-        <v>-0.6043409397006184</v>
+        <v>2.421569769210853</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2945625782012939</v>
+        <v>-0.2179280709429499</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5180509090423584</v>
+        <v>0.7012171745300293</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9072732925415039</v>
+        <v>2.774387836456299</v>
       </c>
       <c r="H4" t="n">
-        <v>1.452426433563232</v>
+        <v>8.220658540725708</v>
       </c>
       <c r="I4" t="n">
-        <v>2.16815972328186</v>
+        <v>15.52480554580688</v>
       </c>
       <c r="J4" t="n">
-        <v>3.012612819671631</v>
+        <v>28.27980852127075</v>
+      </c>
+      <c r="K4" t="n">
+        <v>58.24149751663208</v>
       </c>
     </row>
     <row r="5">
@@ -581,32 +601,37 @@
           <t>GPU</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>20</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.366577819470946</v>
-      </c>
       <c r="D5" t="n">
-        <v>-0.3301091472028336</v>
+        <v>1.9274565395073</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5475656986236572</v>
+        <v>0.3859525977017446</v>
       </c>
       <c r="F5" t="n">
-        <v>1.02137565612793</v>
+        <v>2.509945154190063</v>
       </c>
       <c r="G5" t="n">
-        <v>1.841377735137939</v>
+        <v>8.588404893875122</v>
       </c>
       <c r="H5" t="n">
-        <v>2.970637321472168</v>
+        <v>21.82330536842346</v>
       </c>
       <c r="I5" t="n">
-        <v>4.422843456268311</v>
+        <v>35.5144476890564</v>
       </c>
       <c r="J5" t="n">
-        <v>6.205781698226929</v>
+        <v>45.41339445114136</v>
+      </c>
+      <c r="K5" t="n">
+        <v>87.7028214931488</v>
       </c>
     </row>
     <row r="6">
@@ -615,32 +640,37 @@
           <t>GPU</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>25</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.43667083041972</v>
-      </c>
       <c r="D6" t="n">
-        <v>-0.1011065195849261</v>
+        <v>2.163048207426054</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9158294200897217</v>
+        <v>0.4893365036028963</v>
       </c>
       <c r="F6" t="n">
-        <v>1.817347049713135</v>
+        <v>3.440984010696411</v>
       </c>
       <c r="G6" t="n">
-        <v>3.479442834854126</v>
+        <v>11.96894264221191</v>
       </c>
       <c r="H6" t="n">
-        <v>5.562156200408936</v>
+        <v>33.27593350410461</v>
       </c>
       <c r="I6" t="n">
-        <v>8.365537166595459</v>
+        <v>61.57110738754272</v>
       </c>
       <c r="J6" t="n">
-        <v>11.69251322746277</v>
+        <v>82.07351541519165</v>
+      </c>
+      <c r="K6" t="n">
+        <v>188.8505704402924</v>
       </c>
     </row>
     <row r="7">
@@ -649,32 +679,37 @@
           <t>GPU</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>30</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.379259638516011</v>
-      </c>
       <c r="D7" t="n">
-        <v>0.1592633394784359</v>
+        <v>1.99749002059915</v>
       </c>
       <c r="E7" t="n">
-        <v>1.696976661682129</v>
+        <v>0.8673885330722613</v>
       </c>
       <c r="F7" t="n">
-        <v>3.163252592086792</v>
+        <v>7.239493370056152</v>
       </c>
       <c r="G7" t="n">
-        <v>5.738856077194214</v>
+        <v>26.77697467803955</v>
       </c>
       <c r="H7" t="n">
-        <v>9.334948301315308</v>
+        <v>78.46867442131042</v>
       </c>
       <c r="I7" t="n">
-        <v>13.96846151351929</v>
+        <v>135.0308003425598</v>
       </c>
       <c r="J7" t="n">
-        <v>19.61949348449707</v>
+        <v>147.5566821098328</v>
+      </c>
+      <c r="K7" t="n">
+        <v>269.3188054561615</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_30P_6K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_30P_6K.xlsx
@@ -493,28 +493,28 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.791824420238908</v>
+        <v>0.953546238067735</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5528278479911162</v>
+        <v>0.2303181527784569</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2727115154266357</v>
+        <v>2.101060390472412</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8176355361938477</v>
+        <v>2.581214427947998</v>
       </c>
       <c r="H2" t="n">
-        <v>2.259559631347656</v>
+        <v>4.197235822677612</v>
       </c>
       <c r="I2" t="n">
-        <v>5.257014513015747</v>
+        <v>6.083020925521851</v>
       </c>
       <c r="J2" t="n">
-        <v>4.242559671401978</v>
+        <v>8.118597745895386</v>
       </c>
       <c r="K2" t="n">
-        <v>5.65219259262085</v>
+        <v>11.36792540550232</v>
       </c>
     </row>
     <row r="3">
@@ -532,28 +532,28 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.164372121671362</v>
+        <v>1.145435563098513</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4575417722974989</v>
+        <v>0.5055898747231292</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3741240501403809</v>
+        <v>3.661180257797241</v>
       </c>
       <c r="G3" t="n">
-        <v>1.261255979537964</v>
+        <v>6.155582189559937</v>
       </c>
       <c r="H3" t="n">
-        <v>4.263588905334473</v>
+        <v>10.37484812736511</v>
       </c>
       <c r="I3" t="n">
-        <v>7.458236932754517</v>
+        <v>14.58872437477112</v>
       </c>
       <c r="J3" t="n">
-        <v>11.18235731124878</v>
+        <v>20.46269345283508</v>
       </c>
       <c r="K3" t="n">
-        <v>16.38009238243103</v>
+        <v>29.01197957992554</v>
       </c>
     </row>
     <row r="4">
@@ -571,28 +571,28 @@
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>2.421569769210853</v>
+        <v>1.231206506879312</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2179280709429499</v>
+        <v>0.7010007646209879</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7012171745300293</v>
+        <v>5.807634592056274</v>
       </c>
       <c r="G4" t="n">
-        <v>2.774387836456299</v>
+        <v>9.948113203048706</v>
       </c>
       <c r="H4" t="n">
-        <v>8.220658540725708</v>
+        <v>18.04841089248657</v>
       </c>
       <c r="I4" t="n">
-        <v>15.52480554580688</v>
+        <v>25.85572576522827</v>
       </c>
       <c r="J4" t="n">
-        <v>28.27980852127075</v>
+        <v>37.61862444877625</v>
       </c>
       <c r="K4" t="n">
-        <v>58.24149751663208</v>
+        <v>52.21944379806519</v>
       </c>
     </row>
     <row r="5">
@@ -610,28 +610,28 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>1.9274565395073</v>
+        <v>1.242428839325388</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3859525977017446</v>
+        <v>0.889354133054078</v>
       </c>
       <c r="F5" t="n">
-        <v>2.509945154190063</v>
+        <v>8.32720947265625</v>
       </c>
       <c r="G5" t="n">
-        <v>8.588404893875122</v>
+        <v>18.14886856079102</v>
       </c>
       <c r="H5" t="n">
-        <v>21.82330536842346</v>
+        <v>26.87600350379944</v>
       </c>
       <c r="I5" t="n">
-        <v>35.5144476890564</v>
+        <v>39.57535862922668</v>
       </c>
       <c r="J5" t="n">
-        <v>45.41339445114136</v>
+        <v>58.66474938392639</v>
       </c>
       <c r="K5" t="n">
-        <v>87.7028214931488</v>
+        <v>81.59082770347595</v>
       </c>
     </row>
     <row r="6">
@@ -649,28 +649,28 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>2.163048207426054</v>
+        <v>1.39447302842296</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4893365036028963</v>
+        <v>0.9516818340950588</v>
       </c>
       <c r="F6" t="n">
-        <v>3.440984010696411</v>
+        <v>10.60433077812195</v>
       </c>
       <c r="G6" t="n">
-        <v>11.96894264221191</v>
+        <v>19.28499984741211</v>
       </c>
       <c r="H6" t="n">
-        <v>33.27593350410461</v>
+        <v>37.58081555366516</v>
       </c>
       <c r="I6" t="n">
-        <v>61.57110738754272</v>
+        <v>57.73904466629028</v>
       </c>
       <c r="J6" t="n">
-        <v>82.07351541519165</v>
+        <v>88.47370600700378</v>
       </c>
       <c r="K6" t="n">
-        <v>188.8505704402924</v>
+        <v>126.0698087215424</v>
       </c>
     </row>
     <row r="7">
@@ -688,28 +688,28 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>1.99749002059915</v>
+        <v>1.441994155768954</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8673885330722613</v>
+        <v>1.107310775381382</v>
       </c>
       <c r="F7" t="n">
-        <v>7.239493370056152</v>
+        <v>13.7994441986084</v>
       </c>
       <c r="G7" t="n">
-        <v>26.77697467803955</v>
+        <v>30.95129203796387</v>
       </c>
       <c r="H7" t="n">
-        <v>78.46867442131042</v>
+        <v>59.73940968513489</v>
       </c>
       <c r="I7" t="n">
-        <v>135.0308003425598</v>
+        <v>100.5706887245178</v>
       </c>
       <c r="J7" t="n">
-        <v>147.5566821098328</v>
+        <v>129.8194785118103</v>
       </c>
       <c r="K7" t="n">
-        <v>269.3188054561615</v>
+        <v>174.3848338127136</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_30P_6K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_30P_6K.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,235 +481,469 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPU</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.953546238067735</v>
+        <v>1.729880015288199</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2303181527784569</v>
+        <v>-0.4718276050637406</v>
       </c>
       <c r="F2" t="n">
-        <v>2.101060390472412</v>
+        <v>0.3959634304046631</v>
       </c>
       <c r="G2" t="n">
-        <v>2.581214427947998</v>
+        <v>0.8777234554290771</v>
       </c>
       <c r="H2" t="n">
-        <v>4.197235822677612</v>
+        <v>2.210569143295288</v>
       </c>
       <c r="I2" t="n">
-        <v>6.083020925521851</v>
+        <v>3.673864364624023</v>
       </c>
       <c r="J2" t="n">
-        <v>8.118597745895386</v>
+        <v>5.432168245315552</v>
       </c>
       <c r="K2" t="n">
-        <v>11.36792540550232</v>
+        <v>8.43846607208252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GPU</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.145435563098513</v>
+        <v>2.044423642901803</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5055898747231292</v>
+        <v>-0.0780840887285407</v>
       </c>
       <c r="F3" t="n">
-        <v>3.661180257797241</v>
+        <v>0.8682634830474854</v>
       </c>
       <c r="G3" t="n">
-        <v>6.155582189559937</v>
+        <v>3.048421859741211</v>
       </c>
       <c r="H3" t="n">
-        <v>10.37484812736511</v>
+        <v>8.339123725891113</v>
       </c>
       <c r="I3" t="n">
-        <v>14.58872437477112</v>
+        <v>15.12195086479187</v>
       </c>
       <c r="J3" t="n">
-        <v>20.46269345283508</v>
+        <v>22.77373147010803</v>
       </c>
       <c r="K3" t="n">
-        <v>29.01197957992554</v>
+        <v>31.06021809577942</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GPU</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>1.231206506879312</v>
+        <v>2.177660589120431</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7010007646209879</v>
+        <v>0.2648074201515941</v>
       </c>
       <c r="F4" t="n">
-        <v>5.807634592056274</v>
+        <v>1.820458650588989</v>
       </c>
       <c r="G4" t="n">
-        <v>9.948113203048706</v>
+        <v>8.161263227462769</v>
       </c>
       <c r="H4" t="n">
-        <v>18.04841089248657</v>
+        <v>21.73406362533569</v>
       </c>
       <c r="I4" t="n">
-        <v>25.85572576522827</v>
+        <v>37.57201194763184</v>
       </c>
       <c r="J4" t="n">
-        <v>37.61862444877625</v>
+        <v>57.51041126251221</v>
       </c>
       <c r="K4" t="n">
-        <v>52.21944379806519</v>
+        <v>92.78010034561157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GPU</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>1.242428839325388</v>
+        <v>2.145770979208997</v>
       </c>
       <c r="E5" t="n">
-        <v>0.889354133054078</v>
+        <v>0.589641278302387</v>
       </c>
       <c r="F5" t="n">
-        <v>8.32720947265625</v>
+        <v>4.010395765304565</v>
       </c>
       <c r="G5" t="n">
-        <v>18.14886856079102</v>
+        <v>14.88030290603638</v>
       </c>
       <c r="H5" t="n">
-        <v>26.87600350379944</v>
+        <v>47.08854985237122</v>
       </c>
       <c r="I5" t="n">
-        <v>39.57535862922668</v>
+        <v>78.74842214584351</v>
       </c>
       <c r="J5" t="n">
-        <v>58.66474938392639</v>
+        <v>119.3785648345947</v>
       </c>
       <c r="K5" t="n">
-        <v>81.59082770347595</v>
+        <v>176.6632707118988</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GPU</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>1.39447302842296</v>
+        <v>2.2989397700903</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9516818340950588</v>
+        <v>0.7773163824791561</v>
       </c>
       <c r="F6" t="n">
-        <v>10.60433077812195</v>
+        <v>6.040673732757568</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28499984741211</v>
+        <v>27.4431676864624</v>
       </c>
       <c r="H6" t="n">
-        <v>37.58081555366516</v>
+        <v>80.77668762207031</v>
       </c>
       <c r="I6" t="n">
-        <v>57.73904466629028</v>
+        <v>147.1362488269806</v>
       </c>
       <c r="J6" t="n">
-        <v>88.47370600700378</v>
+        <v>247.5757875442505</v>
       </c>
       <c r="K6" t="n">
-        <v>126.0698087215424</v>
+        <v>350.348370552063</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GPU</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>1.441994155768954</v>
+        <v>2.347345149077016</v>
       </c>
       <c r="E7" t="n">
-        <v>1.107310775381382</v>
+        <v>0.9909257287598539</v>
       </c>
       <c r="F7" t="n">
-        <v>13.7994441986084</v>
+        <v>8.544447660446167</v>
       </c>
       <c r="G7" t="n">
-        <v>30.95129203796387</v>
+        <v>57.05943012237549</v>
       </c>
       <c r="H7" t="n">
-        <v>59.73940968513489</v>
+        <v>151.0471103191376</v>
       </c>
       <c r="I7" t="n">
-        <v>100.5706887245178</v>
+        <v>249.9150841236115</v>
       </c>
       <c r="J7" t="n">
-        <v>129.8194785118103</v>
+        <v>411.6053891181946</v>
       </c>
       <c r="K7" t="n">
-        <v>174.3848338127136</v>
+        <v>593.3386559486389</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NOCAC</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.22585004541155</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.401482572479991</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04947018623352051</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.07300615310668945</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1293396949768066</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2016022205352783</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3055603504180908</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.4312593936920166</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NOCAC</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.195583149493707</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.945723485390796</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1395359039306641</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2062880992889404</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3589396476745605</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5651345252990723</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8241679668426514</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.146802186965942</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NOCAC</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.287444741387871</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.6084017755727839</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2927100658416748</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5015020370483398</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8782248497009277</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.398941040039062</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.063264131546021</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.867984056472778</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NOCAC</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.350309017388481</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.341019111867389</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5355050563812256</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9836914539337158</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.755582094192505</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.825793266296387</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.211291313171387</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.896141052246094</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NOCAC</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.405358307664027</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.1143382436034499</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8957252502441406</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.735109090805054</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.162350177764893</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.158928632736206</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7.739899873733521</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10.8827862739563</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NOCAC</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.450629718436796</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.07898005111548219</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.386997938156128</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.813277244567871</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.231040954589844</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8.600570678710938</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12.95852708816528</v>
+      </c>
+      <c r="K13" t="n">
+        <v>18.27478814125061</v>
       </c>
     </row>
   </sheetData>
